--- a/book/data/dataset2.xlsx
+++ b/book/data/dataset2.xlsx
@@ -187,58 +187,58 @@
     <t>Tanga</t>
   </si>
   <si>
-    <t>F4185</t>
+    <t>F4843</t>
   </si>
   <si>
-    <t>F2074</t>
+    <t>F1032</t>
   </si>
   <si>
-    <t>F6545</t>
+    <t>F1594</t>
   </si>
   <si>
-    <t>F7483</t>
+    <t>F1163</t>
   </si>
   <si>
-    <t>F4625</t>
+    <t>F8560</t>
   </si>
   <si>
-    <t>F7416</t>
+    <t>F1085</t>
   </si>
   <si>
-    <t>F3879</t>
+    <t>F9758</t>
   </si>
   <si>
-    <t>F0590</t>
+    <t>F5700</t>
   </si>
   <si>
-    <t>F3358</t>
+    <t>F3634</t>
   </si>
   <si>
-    <t>F7531</t>
+    <t>F0513</t>
   </si>
   <si>
-    <t>F1166</t>
+    <t>F1866</t>
   </si>
   <si>
-    <t>F6828</t>
+    <t>F0811</t>
   </si>
   <si>
-    <t>F8908</t>
+    <t>F0665</t>
   </si>
   <si>
-    <t>F2646</t>
+    <t>F7862</t>
   </si>
   <si>
-    <t>F7813</t>
+    <t>F7248</t>
   </si>
   <si>
-    <t>F6801</t>
+    <t>F0070</t>
   </si>
   <si>
-    <t>F4375</t>
+    <t>F4131</t>
   </si>
   <si>
-    <t>F2699</t>
+    <t>F1265</t>
   </si>
   <si>
     <t>rural</t>
@@ -1347,7 +1347,7 @@
         <v>188</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>4</v>
@@ -1642,7 +1642,7 @@
         <v>188</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>188</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>1</v>
@@ -2083,7 +2083,7 @@
         <v>188</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>188</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>188</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -2667,7 +2667,7 @@
         <v>188</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3105,7 +3105,7 @@
         <v>188</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>2</v>
@@ -3251,7 +3251,7 @@
         <v>188</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -3549,7 +3549,7 @@
         <v>188</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -3698,7 +3698,7 @@
         <v>188</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>3</v>
@@ -3850,7 +3850,7 @@
         <v>188</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -3996,7 +3996,7 @@
         <v>188</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>1</v>
@@ -4139,7 +4139,7 @@
         <v>188</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4288,7 +4288,7 @@
         <v>188</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -4583,7 +4583,7 @@
         <v>188</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1</v>
@@ -4872,7 +4872,7 @@
         <v>188</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>188</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>188</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>2</v>
@@ -5313,7 +5313,7 @@
         <v>188</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -5456,7 +5456,7 @@
         <v>188</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1</v>
@@ -5599,7 +5599,7 @@
         <v>188</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>1</v>
@@ -5748,7 +5748,7 @@
         <v>189</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV32">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>189</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1</v>
@@ -6043,7 +6043,7 @@
         <v>189</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>2</v>
@@ -6192,7 +6192,7 @@
         <v>189</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>189</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV36">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>189</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1</v>
@@ -6630,7 +6630,7 @@
         <v>189</v>
       </c>
       <c r="AR38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1</v>
@@ -7074,7 +7074,7 @@
         <v>189</v>
       </c>
       <c r="AR41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1</v>
@@ -7947,7 +7947,7 @@
         <v>189</v>
       </c>
       <c r="AR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV47">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>189</v>
       </c>
       <c r="AR48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV48">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>189</v>
       </c>
       <c r="AR49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV49">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>189</v>
       </c>
       <c r="AR50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>189</v>
       </c>
       <c r="AR51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV51">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>189</v>
       </c>
       <c r="AR52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV52">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>189</v>
       </c>
       <c r="AR53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV53">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>189</v>
       </c>
       <c r="AR54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV54">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>189</v>
       </c>
       <c r="AR55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV55">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>190</v>
       </c>
       <c r="AR56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV56">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>190</v>
       </c>
       <c r="AR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1</v>
@@ -9547,7 +9547,7 @@
         <v>190</v>
       </c>
       <c r="AR58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV58">
         <v>0</v>
@@ -9690,7 +9690,7 @@
         <v>189</v>
       </c>
       <c r="AR59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV59">
         <v>0</v>
@@ -9836,7 +9836,7 @@
         <v>190</v>
       </c>
       <c r="AR60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -9985,7 +9985,7 @@
         <v>190</v>
       </c>
       <c r="AR61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV61">
         <v>0</v>
@@ -10131,7 +10131,7 @@
         <v>190</v>
       </c>
       <c r="AR62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1</v>
@@ -10280,7 +10280,7 @@
         <v>190</v>
       </c>
       <c r="AR63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV63">
         <v>0</v>
@@ -10426,7 +10426,7 @@
         <v>190</v>
       </c>
       <c r="AR64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>2</v>
@@ -10870,7 +10870,7 @@
         <v>189</v>
       </c>
       <c r="AR67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV67">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>189</v>
       </c>
       <c r="AR69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV69">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>191</v>
       </c>
       <c r="AR70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -11454,7 +11454,7 @@
         <v>191</v>
       </c>
       <c r="AR71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -11606,7 +11606,7 @@
         <v>192</v>
       </c>
       <c r="AR72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>3</v>
@@ -11755,7 +11755,7 @@
         <v>192</v>
       </c>
       <c r="AR73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>3</v>
@@ -11904,7 +11904,7 @@
         <v>192</v>
       </c>
       <c r="AR74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -12208,7 +12208,7 @@
         <v>193</v>
       </c>
       <c r="AR76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -12649,7 +12649,7 @@
         <v>192</v>
       </c>
       <c r="AR79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV79">
         <v>0</v>
@@ -12798,7 +12798,7 @@
         <v>192</v>
       </c>
       <c r="AR80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -13087,7 +13087,7 @@
         <v>191</v>
       </c>
       <c r="AR82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>5</v>
@@ -13236,7 +13236,7 @@
         <v>193</v>
       </c>
       <c r="AR83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -13668,7 +13668,7 @@
         <v>191</v>
       </c>
       <c r="AR86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -13808,7 +13808,7 @@
         <v>191</v>
       </c>
       <c r="AR87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -13954,7 +13954,7 @@
         <v>192</v>
       </c>
       <c r="AR88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>2</v>
@@ -14389,7 +14389,7 @@
         <v>192</v>
       </c>
       <c r="AR91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -14693,7 +14693,7 @@
         <v>192</v>
       </c>
       <c r="AR93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>4</v>
@@ -14836,7 +14836,7 @@
         <v>191</v>
       </c>
       <c r="AR94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -14985,7 +14985,7 @@
         <v>191</v>
       </c>
       <c r="AR95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -15134,7 +15134,7 @@
         <v>191</v>
       </c>
       <c r="AR96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -15426,7 +15426,7 @@
         <v>193</v>
       </c>
       <c r="AR98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>4</v>
@@ -15575,7 +15575,7 @@
         <v>191</v>
       </c>
       <c r="AR99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -15718,7 +15718,7 @@
         <v>191</v>
       </c>
       <c r="AR100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -16013,7 +16013,7 @@
         <v>193</v>
       </c>
       <c r="AR102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -16460,7 +16460,7 @@
         <v>194</v>
       </c>
       <c r="AR105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>2</v>
@@ -16612,7 +16612,7 @@
         <v>194</v>
       </c>
       <c r="AR106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>2</v>
@@ -16764,7 +16764,7 @@
         <v>194</v>
       </c>
       <c r="AR107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>2</v>
@@ -16913,7 +16913,7 @@
         <v>194</v>
       </c>
       <c r="AR108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV108">
         <v>1</v>
@@ -17062,7 +17062,7 @@
         <v>194</v>
       </c>
       <c r="AR109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1</v>
@@ -17214,7 +17214,7 @@
         <v>194</v>
       </c>
       <c r="AR110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1</v>
@@ -17366,7 +17366,7 @@
         <v>194</v>
       </c>
       <c r="AR111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1</v>
@@ -17512,7 +17512,7 @@
         <v>194</v>
       </c>
       <c r="AR112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>3</v>
@@ -17664,7 +17664,7 @@
         <v>194</v>
       </c>
       <c r="AR113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -17816,7 +17816,7 @@
         <v>194</v>
       </c>
       <c r="AR114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -18108,7 +18108,7 @@
         <v>194</v>
       </c>
       <c r="AR116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -18260,7 +18260,7 @@
         <v>194</v>
       </c>
       <c r="AR117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -18409,7 +18409,7 @@
         <v>194</v>
       </c>
       <c r="AR118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV118">
         <v>1</v>
@@ -18555,7 +18555,7 @@
         <v>194</v>
       </c>
       <c r="AR119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -18707,7 +18707,7 @@
         <v>194</v>
       </c>
       <c r="AR120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>2</v>
@@ -18859,7 +18859,7 @@
         <v>194</v>
       </c>
       <c r="AR121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>3</v>
@@ -19011,7 +19011,7 @@
         <v>194</v>
       </c>
       <c r="AR122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -19160,7 +19160,7 @@
         <v>194</v>
       </c>
       <c r="AR123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU123">
         <v>2</v>
@@ -19312,7 +19312,7 @@
         <v>194</v>
       </c>
       <c r="AR124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU124">
         <v>2</v>
@@ -19464,7 +19464,7 @@
         <v>194</v>
       </c>
       <c r="AR125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>2</v>
@@ -19765,7 +19765,7 @@
         <v>195</v>
       </c>
       <c r="AR127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>3</v>
@@ -19914,7 +19914,7 @@
         <v>195</v>
       </c>
       <c r="AR128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>3</v>
@@ -20057,7 +20057,7 @@
         <v>195</v>
       </c>
       <c r="AR129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -20206,7 +20206,7 @@
         <v>195</v>
       </c>
       <c r="AR130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -20349,7 +20349,7 @@
         <v>195</v>
       </c>
       <c r="AR131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>2</v>
@@ -20498,7 +20498,7 @@
         <v>195</v>
       </c>
       <c r="AR132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU132">
         <v>1</v>
@@ -21249,7 +21249,7 @@
         <v>197</v>
       </c>
       <c r="AR137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -21398,7 +21398,7 @@
         <v>195</v>
       </c>
       <c r="AR138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU138">
         <v>1</v>
@@ -21547,7 +21547,7 @@
         <v>196</v>
       </c>
       <c r="AR139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>3</v>
@@ -21696,7 +21696,7 @@
         <v>195</v>
       </c>
       <c r="AR140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -21845,7 +21845,7 @@
         <v>195</v>
       </c>
       <c r="AR141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU141">
         <v>1</v>
@@ -21991,7 +21991,7 @@
         <v>195</v>
       </c>
       <c r="AR142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU142">
         <v>1</v>
@@ -22140,7 +22140,7 @@
         <v>196</v>
       </c>
       <c r="AR143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU143">
         <v>2</v>
@@ -22289,7 +22289,7 @@
         <v>196</v>
       </c>
       <c r="AR144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>3</v>
@@ -22438,7 +22438,7 @@
         <v>196</v>
       </c>
       <c r="AR145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU145">
         <v>2</v>
@@ -22587,7 +22587,7 @@
         <v>196</v>
       </c>
       <c r="AR146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -22736,7 +22736,7 @@
         <v>195</v>
       </c>
       <c r="AR147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>2</v>
@@ -22885,7 +22885,7 @@
         <v>195</v>
       </c>
       <c r="AR148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>3</v>
@@ -23034,7 +23034,7 @@
         <v>195</v>
       </c>
       <c r="AR149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>2</v>
@@ -23183,7 +23183,7 @@
         <v>195</v>
       </c>
       <c r="AR150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>2</v>
@@ -23329,7 +23329,7 @@
         <v>195</v>
       </c>
       <c r="AR151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -23478,7 +23478,7 @@
         <v>195</v>
       </c>
       <c r="AR152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU152">
         <v>3</v>
@@ -23627,7 +23627,7 @@
         <v>197</v>
       </c>
       <c r="AR153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU153">
         <v>1</v>
@@ -23776,7 +23776,7 @@
         <v>197</v>
       </c>
       <c r="AR154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU154">
         <v>2</v>
@@ -23925,7 +23925,7 @@
         <v>195</v>
       </c>
       <c r="AR155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU155">
         <v>2</v>
@@ -24074,7 +24074,7 @@
         <v>195</v>
       </c>
       <c r="AR156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1</v>
@@ -24366,7 +24366,7 @@
         <v>195</v>
       </c>
       <c r="AR158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU158">
         <v>7</v>
@@ -24518,7 +24518,7 @@
         <v>197</v>
       </c>
       <c r="AR159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU159">
         <v>3</v>
@@ -24661,7 +24661,7 @@
         <v>197</v>
       </c>
       <c r="AR160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>3</v>
@@ -24804,7 +24804,7 @@
         <v>195</v>
       </c>
       <c r="AR161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU161">
         <v>3</v>
@@ -24953,7 +24953,7 @@
         <v>197</v>
       </c>
       <c r="AR162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -25093,7 +25093,7 @@
         <v>198</v>
       </c>
       <c r="AR163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU163">
         <v>3</v>
@@ -25239,7 +25239,7 @@
         <v>199</v>
       </c>
       <c r="AR164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>3</v>
@@ -25537,7 +25537,7 @@
         <v>198</v>
       </c>
       <c r="AR166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1</v>
@@ -25686,7 +25686,7 @@
         <v>198</v>
       </c>
       <c r="AR167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU167">
         <v>1</v>
@@ -25981,7 +25981,7 @@
         <v>198</v>
       </c>
       <c r="AR169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU169">
         <v>1</v>
@@ -26133,7 +26133,7 @@
         <v>199</v>
       </c>
       <c r="AR170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU170">
         <v>3</v>
@@ -26428,7 +26428,7 @@
         <v>199</v>
       </c>
       <c r="AR172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU172">
         <v>2</v>
@@ -27450,7 +27450,7 @@
         <v>199</v>
       </c>
       <c r="AR179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU179">
         <v>3</v>
@@ -27596,7 +27596,7 @@
         <v>199</v>
       </c>
       <c r="AR180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -28591,7 +28591,7 @@
         <v>200</v>
       </c>
       <c r="AR187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU187">
         <v>2</v>
@@ -28737,7 +28737,7 @@
         <v>200</v>
       </c>
       <c r="AR188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU188">
         <v>2</v>
@@ -28883,7 +28883,7 @@
         <v>200</v>
       </c>
       <c r="AR189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU189">
         <v>3</v>
@@ -29762,7 +29762,7 @@
         <v>200</v>
       </c>
       <c r="AR195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU195">
         <v>3</v>
@@ -29908,7 +29908,7 @@
         <v>201</v>
       </c>
       <c r="AR196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU196">
         <v>2</v>
@@ -30352,7 +30352,7 @@
         <v>201</v>
       </c>
       <c r="AR199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -30498,7 +30498,7 @@
         <v>201</v>
       </c>
       <c r="AR200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU200">
         <v>2</v>
@@ -30641,7 +30641,7 @@
         <v>201</v>
       </c>
       <c r="AR201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU201">
         <v>3</v>
@@ -30787,7 +30787,7 @@
         <v>201</v>
       </c>
       <c r="AR202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU202">
         <v>3</v>
@@ -30933,7 +30933,7 @@
         <v>200</v>
       </c>
       <c r="AR203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV203">
         <v>0</v>
@@ -31228,7 +31228,7 @@
         <v>201</v>
       </c>
       <c r="AR205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU205">
         <v>2</v>
@@ -31824,7 +31824,7 @@
         <v>200</v>
       </c>
       <c r="AR209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -31967,7 +31967,7 @@
         <v>200</v>
       </c>
       <c r="AR210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU210">
         <v>2</v>
@@ -32107,7 +32107,7 @@
         <v>201</v>
       </c>
       <c r="AR211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU211">
         <v>3</v>
@@ -32250,7 +32250,7 @@
         <v>201</v>
       </c>
       <c r="AR212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU212">
         <v>2</v>
@@ -32393,7 +32393,7 @@
         <v>201</v>
       </c>
       <c r="AR213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU213">
         <v>2</v>
@@ -32533,7 +32533,7 @@
         <v>201</v>
       </c>
       <c r="AR214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU214">
         <v>2</v>
@@ -33260,7 +33260,7 @@
         <v>200</v>
       </c>
       <c r="AR219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU219">
         <v>2</v>
@@ -33412,7 +33412,7 @@
         <v>202</v>
       </c>
       <c r="AR220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU220">
         <v>1</v>
@@ -34002,7 +34002,7 @@
         <v>202</v>
       </c>
       <c r="AR224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU224">
         <v>1</v>
@@ -34607,7 +34607,7 @@
         <v>203</v>
       </c>
       <c r="AR228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU228">
         <v>2</v>
@@ -35191,7 +35191,7 @@
         <v>202</v>
       </c>
       <c r="AR232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU232">
         <v>1</v>
@@ -35489,7 +35489,7 @@
         <v>202</v>
       </c>
       <c r="AR234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU234">
         <v>1</v>
@@ -35924,7 +35924,7 @@
         <v>202</v>
       </c>
       <c r="AR237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU237">
         <v>2</v>
@@ -36073,7 +36073,7 @@
         <v>203</v>
       </c>
       <c r="AR238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU238">
         <v>3</v>
@@ -36225,7 +36225,7 @@
         <v>203</v>
       </c>
       <c r="AR239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU239">
         <v>3</v>
@@ -36374,7 +36374,7 @@
         <v>202</v>
       </c>
       <c r="AR240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU240">
         <v>3</v>
@@ -36520,7 +36520,7 @@
         <v>203</v>
       </c>
       <c r="AR241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU241">
         <v>3</v>
@@ -36812,7 +36812,7 @@
         <v>202</v>
       </c>
       <c r="AR243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU243">
         <v>1</v>
@@ -37119,7 +37119,7 @@
         <v>202</v>
       </c>
       <c r="AR245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU245">
         <v>1</v>
@@ -37405,7 +37405,7 @@
         <v>202</v>
       </c>
       <c r="AR247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU247">
         <v>2</v>
@@ -37554,7 +37554,7 @@
         <v>202</v>
       </c>
       <c r="AR248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU248">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         <v>204</v>
       </c>
       <c r="AR251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV251">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>204</v>
       </c>
       <c r="AR252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU252">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         <v>204</v>
       </c>
       <c r="AR254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU254">
         <v>1</v>
@@ -38999,7 +38999,7 @@
         <v>204</v>
       </c>
       <c r="AR258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU258">
         <v>2</v>
@@ -39434,7 +39434,7 @@
         <v>204</v>
       </c>
       <c r="AR261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU261">
         <v>3</v>
@@ -39732,7 +39732,7 @@
         <v>204</v>
       </c>
       <c r="AR263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU263">
         <v>3</v>
@@ -39881,7 +39881,7 @@
         <v>204</v>
       </c>
       <c r="AR264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU264">
         <v>7</v>
@@ -40030,7 +40030,7 @@
         <v>204</v>
       </c>
       <c r="AR265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU265">
         <v>1</v>
@@ -40170,7 +40170,7 @@
         <v>204</v>
       </c>
       <c r="AR266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU266">
         <v>3</v>
@@ -40465,7 +40465,7 @@
         <v>204</v>
       </c>
       <c r="AR268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU268">
         <v>3</v>
@@ -40614,7 +40614,7 @@
         <v>204</v>
       </c>
       <c r="AR269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU269">
         <v>2</v>
@@ -41186,7 +41186,7 @@
         <v>204</v>
       </c>
       <c r="AR273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV273">
         <v>0</v>
@@ -41326,7 +41326,7 @@
         <v>204</v>
       </c>
       <c r="AR274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV274">
         <v>0</v>
@@ -41472,7 +41472,7 @@
         <v>204</v>
       </c>
       <c r="AR275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU275">
         <v>2</v>
@@ -42187,7 +42187,7 @@
         <v>204</v>
       </c>
       <c r="AR280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU280">
         <v>3</v>
@@ -42330,7 +42330,7 @@
         <v>204</v>
       </c>
       <c r="AR281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU281">
         <v>2</v>
@@ -42616,7 +42616,7 @@
         <v>204</v>
       </c>
       <c r="AR283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU283">
         <v>2</v>
@@ -42759,7 +42759,7 @@
         <v>204</v>
       </c>
       <c r="AR284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV284">
         <v>0</v>
@@ -42899,7 +42899,7 @@
         <v>204</v>
       </c>
       <c r="AR285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU285">
         <v>2</v>
@@ -43322,7 +43322,7 @@
         <v>204</v>
       </c>
       <c r="AR288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU288">
         <v>2</v>
@@ -43471,7 +43471,7 @@
         <v>204</v>
       </c>
       <c r="AR289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU289">
         <v>3</v>
@@ -43620,7 +43620,7 @@
         <v>204</v>
       </c>
       <c r="AR290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU290">
         <v>3</v>
@@ -44043,7 +44043,7 @@
         <v>204</v>
       </c>
       <c r="AR293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU293">
         <v>1</v>
@@ -44186,7 +44186,7 @@
         <v>204</v>
       </c>
       <c r="AR294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV294">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>204</v>
       </c>
       <c r="AR295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV295">
         <v>0</v>
@@ -44764,7 +44764,7 @@
         <v>205</v>
       </c>
       <c r="AR298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU298">
         <v>4</v>
@@ -45059,7 +45059,7 @@
         <v>206</v>
       </c>
       <c r="AR300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU300">
         <v>2</v>
@@ -45205,7 +45205,7 @@
         <v>206</v>
       </c>
       <c r="AR301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU301">
         <v>3</v>
@@ -45491,7 +45491,7 @@
         <v>205</v>
       </c>
       <c r="AR303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU303">
         <v>4</v>
@@ -45786,7 +45786,7 @@
         <v>206</v>
       </c>
       <c r="AR305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU305">
         <v>3</v>
@@ -45935,7 +45935,7 @@
         <v>206</v>
       </c>
       <c r="AR306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU306">
         <v>3</v>
@@ -46653,7 +46653,7 @@
         <v>205</v>
       </c>
       <c r="AR311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU311">
         <v>3</v>
@@ -46802,7 +46802,7 @@
         <v>206</v>
       </c>
       <c r="AR312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU312">
         <v>2</v>
@@ -46951,7 +46951,7 @@
         <v>206</v>
       </c>
       <c r="AR313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU313">
         <v>2</v>
@@ -47541,7 +47541,7 @@
         <v>205</v>
       </c>
       <c r="AR317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU317">
         <v>3</v>
@@ -47839,7 +47839,7 @@
         <v>205</v>
       </c>
       <c r="AR319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU319">
         <v>2</v>
@@ -48128,7 +48128,7 @@
         <v>205</v>
       </c>
       <c r="AR321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU321">
         <v>6</v>
@@ -48566,7 +48566,7 @@
         <v>206</v>
       </c>
       <c r="AR324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU324">
         <v>2</v>
@@ -48709,7 +48709,7 @@
         <v>206</v>
       </c>
       <c r="AR325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU325">
         <v>3</v>
@@ -48858,7 +48858,7 @@
         <v>206</v>
       </c>
       <c r="AR326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU326">
         <v>2</v>
@@ -49001,7 +49001,7 @@
         <v>206</v>
       </c>
       <c r="AR327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU327">
         <v>2</v>
@@ -49731,7 +49731,7 @@
         <v>206</v>
       </c>
       <c r="AR332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU332">
         <v>3</v>
@@ -50312,7 +50312,7 @@
         <v>206</v>
       </c>
       <c r="AR336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU336">
         <v>3</v>
@@ -50893,7 +50893,7 @@
         <v>207</v>
       </c>
       <c r="AR340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU340">
         <v>2</v>
@@ -51042,7 +51042,7 @@
         <v>207</v>
       </c>
       <c r="AR341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU341">
         <v>2</v>
@@ -52353,7 +52353,7 @@
         <v>209</v>
       </c>
       <c r="AR350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU350">
         <v>1</v>
@@ -52639,7 +52639,7 @@
         <v>209</v>
       </c>
       <c r="AR352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU352">
         <v>1</v>
@@ -52785,7 +52785,7 @@
         <v>208</v>
       </c>
       <c r="AR353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU353">
         <v>1</v>
@@ -53378,7 +53378,7 @@
         <v>209</v>
       </c>
       <c r="AR357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV357">
         <v>1</v>
@@ -53527,7 +53527,7 @@
         <v>208</v>
       </c>
       <c r="AR358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU358">
         <v>2</v>
@@ -53673,7 +53673,7 @@
         <v>208</v>
       </c>
       <c r="AR359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU359">
         <v>2</v>
@@ -54409,7 +54409,7 @@
         <v>208</v>
       </c>
       <c r="AR364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV364">
         <v>1</v>
@@ -54552,7 +54552,7 @@
         <v>208</v>
       </c>
       <c r="AR365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU365">
         <v>1</v>
@@ -54838,7 +54838,7 @@
         <v>209</v>
       </c>
       <c r="AR367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV367">
         <v>0</v>
@@ -54987,7 +54987,7 @@
         <v>209</v>
       </c>
       <c r="AR368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV368">
         <v>0</v>
@@ -55130,7 +55130,7 @@
         <v>208</v>
       </c>
       <c r="AR369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV369">
         <v>0</v>
@@ -55705,7 +55705,7 @@
         <v>208</v>
       </c>
       <c r="AR373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV373">
         <v>0</v>
@@ -55845,7 +55845,7 @@
         <v>208</v>
       </c>
       <c r="AR374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV374">
         <v>0</v>
@@ -56715,7 +56715,7 @@
         <v>210</v>
       </c>
       <c r="AR380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV380">
         <v>0</v>
@@ -56852,7 +56852,7 @@
         <v>210</v>
       </c>
       <c r="AR381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV381">
         <v>0</v>
@@ -57844,7 +57844,7 @@
         <v>211</v>
       </c>
       <c r="AR388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV388">
         <v>0</v>
@@ -57990,7 +57990,7 @@
         <v>211</v>
       </c>
       <c r="AR389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV389">
         <v>0</v>
@@ -58270,7 +58270,7 @@
         <v>211</v>
       </c>
       <c r="AR391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV391">
         <v>0</v>
@@ -58550,7 +58550,7 @@
         <v>212</v>
       </c>
       <c r="AR393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV393">
         <v>0</v>
@@ -58696,7 +58696,7 @@
         <v>211</v>
       </c>
       <c r="AR394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV394">
         <v>0</v>
@@ -58833,7 +58833,7 @@
         <v>211</v>
       </c>
       <c r="AR395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV395">
         <v>0</v>
@@ -58970,7 +58970,7 @@
         <v>211</v>
       </c>
       <c r="AR396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV396">
         <v>0</v>
@@ -59256,7 +59256,7 @@
         <v>212</v>
       </c>
       <c r="AR398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV398">
         <v>0</v>
@@ -59396,7 +59396,7 @@
         <v>212</v>
       </c>
       <c r="AR399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV399">
         <v>0</v>
@@ -59965,7 +59965,7 @@
         <v>212</v>
       </c>
       <c r="AR403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV403">
         <v>0</v>
@@ -60534,7 +60534,7 @@
         <v>210</v>
       </c>
       <c r="AR407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV407">
         <v>1</v>
@@ -60963,7 +60963,7 @@
         <v>212</v>
       </c>
       <c r="AR410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV410">
         <v>0</v>
@@ -61395,7 +61395,7 @@
         <v>212</v>
       </c>
       <c r="AR413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV413">
         <v>0</v>
@@ -61833,7 +61833,7 @@
         <v>213</v>
       </c>
       <c r="AR416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU416">
         <v>3</v>
@@ -62119,7 +62119,7 @@
         <v>213</v>
       </c>
       <c r="AR418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU418">
         <v>3</v>
@@ -62265,7 +62265,7 @@
         <v>213</v>
       </c>
       <c r="AR419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU419">
         <v>3</v>
@@ -62566,7 +62566,7 @@
         <v>213</v>
       </c>
       <c r="AR421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU421">
         <v>2</v>
@@ -62709,7 +62709,7 @@
         <v>214</v>
       </c>
       <c r="AR422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU422">
         <v>3</v>
@@ -63001,7 +63001,7 @@
         <v>214</v>
       </c>
       <c r="AR424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU424">
         <v>3</v>
@@ -63293,7 +63293,7 @@
         <v>214</v>
       </c>
       <c r="AR426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU426">
         <v>2</v>
@@ -63439,7 +63439,7 @@
         <v>214</v>
       </c>
       <c r="AR427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU427">
         <v>2</v>
@@ -63585,7 +63585,7 @@
         <v>213</v>
       </c>
       <c r="AR428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU428">
         <v>3</v>
@@ -63734,7 +63734,7 @@
         <v>214</v>
       </c>
       <c r="AR429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU429">
         <v>2</v>
@@ -63883,7 +63883,7 @@
         <v>214</v>
       </c>
       <c r="AR430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU430">
         <v>4</v>
@@ -64765,7 +64765,7 @@
         <v>215</v>
       </c>
       <c r="AR436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU436">
         <v>2</v>
@@ -65495,7 +65495,7 @@
         <v>215</v>
       </c>
       <c r="AR441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU441">
         <v>3</v>
@@ -65641,7 +65641,7 @@
         <v>215</v>
       </c>
       <c r="AR442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU442">
         <v>4</v>
@@ -65936,7 +65936,7 @@
         <v>215</v>
       </c>
       <c r="AR444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU444">
         <v>3</v>
@@ -66088,7 +66088,7 @@
         <v>215</v>
       </c>
       <c r="AR445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU445">
         <v>2</v>
@@ -66386,7 +66386,7 @@
         <v>215</v>
       </c>
       <c r="AR447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU447">
         <v>7</v>
@@ -66538,7 +66538,7 @@
         <v>215</v>
       </c>
       <c r="AR448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV448">
         <v>0</v>
@@ -66687,7 +66687,7 @@
         <v>215</v>
       </c>
       <c r="AR449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV449">
         <v>0</v>
@@ -66836,7 +66836,7 @@
         <v>215</v>
       </c>
       <c r="AR450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU450">
         <v>1</v>
@@ -66985,7 +66985,7 @@
         <v>215</v>
       </c>
       <c r="AR451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU451">
         <v>1</v>
@@ -67128,7 +67128,7 @@
         <v>215</v>
       </c>
       <c r="AR452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU452">
         <v>3</v>
@@ -67873,7 +67873,7 @@
         <v>217</v>
       </c>
       <c r="AR457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU457">
         <v>3</v>
@@ -68022,7 +68022,7 @@
         <v>217</v>
       </c>
       <c r="AR458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU458">
         <v>1</v>
@@ -68171,7 +68171,7 @@
         <v>217</v>
       </c>
       <c r="AR459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU459">
         <v>1</v>
@@ -68314,7 +68314,7 @@
         <v>217</v>
       </c>
       <c r="AR460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV460">
         <v>0</v>
@@ -68463,7 +68463,7 @@
         <v>217</v>
       </c>
       <c r="AR461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV461">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>217</v>
       </c>
       <c r="AR462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU462">
         <v>3</v>
@@ -68755,7 +68755,7 @@
         <v>217</v>
       </c>
       <c r="AR463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV463">
         <v>0</v>
@@ -68898,7 +68898,7 @@
         <v>217</v>
       </c>
       <c r="AR464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU464">
         <v>1</v>
@@ -69187,7 +69187,7 @@
         <v>217</v>
       </c>
       <c r="AR466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU466">
         <v>1</v>
@@ -69336,7 +69336,7 @@
         <v>217</v>
       </c>
       <c r="AR467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU467">
         <v>1</v>
@@ -69631,7 +69631,7 @@
         <v>218</v>
       </c>
       <c r="AR469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU469">
         <v>1</v>
@@ -69777,7 +69777,7 @@
         <v>218</v>
       </c>
       <c r="AR470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU470">
         <v>1</v>
@@ -69926,7 +69926,7 @@
         <v>218</v>
       </c>
       <c r="AR471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU471">
         <v>3</v>
@@ -70075,7 +70075,7 @@
         <v>218</v>
       </c>
       <c r="AR472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU472">
         <v>3</v>
@@ -70522,7 +70522,7 @@
         <v>217</v>
       </c>
       <c r="AR475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU475">
         <v>3</v>
@@ -70671,7 +70671,7 @@
         <v>217</v>
       </c>
       <c r="AR476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU476">
         <v>3</v>
@@ -70823,7 +70823,7 @@
         <v>217</v>
       </c>
       <c r="AR477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU477">
         <v>3</v>
@@ -70975,7 +70975,7 @@
         <v>217</v>
       </c>
       <c r="AR478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU478">
         <v>3</v>
@@ -71127,7 +71127,7 @@
         <v>217</v>
       </c>
       <c r="AR479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU479">
         <v>1</v>
@@ -71273,7 +71273,7 @@
         <v>219</v>
       </c>
       <c r="AR480">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU480">
         <v>1</v>
@@ -71565,7 +71565,7 @@
         <v>219</v>
       </c>
       <c r="AR482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU482">
         <v>4</v>
@@ -71708,7 +71708,7 @@
         <v>219</v>
       </c>
       <c r="AR483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU483">
         <v>4</v>
@@ -72161,7 +72161,7 @@
         <v>219</v>
       </c>
       <c r="AR486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU486">
         <v>1</v>
@@ -72462,7 +72462,7 @@
         <v>219</v>
       </c>
       <c r="AR488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU488">
         <v>1</v>
@@ -72614,7 +72614,7 @@
         <v>219</v>
       </c>
       <c r="AR489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU489">
         <v>1</v>
@@ -72763,7 +72763,7 @@
         <v>219</v>
       </c>
       <c r="AR490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU490">
         <v>1</v>
@@ -72912,7 +72912,7 @@
         <v>219</v>
       </c>
       <c r="AR491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV491">
         <v>1</v>
@@ -73061,7 +73061,7 @@
         <v>219</v>
       </c>
       <c r="AR492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU492">
         <v>3</v>
@@ -73210,7 +73210,7 @@
         <v>219</v>
       </c>
       <c r="AR493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU493">
         <v>3</v>
@@ -73362,7 +73362,7 @@
         <v>219</v>
       </c>
       <c r="AR494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU494">
         <v>1</v>
@@ -73809,7 +73809,7 @@
         <v>219</v>
       </c>
       <c r="AR497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU497">
         <v>2</v>
@@ -73958,7 +73958,7 @@
         <v>219</v>
       </c>
       <c r="AR498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU498">
         <v>2</v>
@@ -74256,7 +74256,7 @@
         <v>220</v>
       </c>
       <c r="AR500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU500">
         <v>2</v>
@@ -74408,7 +74408,7 @@
         <v>220</v>
       </c>
       <c r="AR501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU501">
         <v>3</v>
@@ -74557,7 +74557,7 @@
         <v>220</v>
       </c>
       <c r="AR502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU502">
         <v>3</v>
@@ -74709,7 +74709,7 @@
         <v>220</v>
       </c>
       <c r="AR503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU503">
         <v>2</v>
@@ -74852,7 +74852,7 @@
         <v>220</v>
       </c>
       <c r="AR504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU504">
         <v>3</v>
@@ -75001,7 +75001,7 @@
         <v>220</v>
       </c>
       <c r="AR505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU505">
         <v>3</v>
@@ -75150,7 +75150,7 @@
         <v>220</v>
       </c>
       <c r="AR506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU506">
         <v>3</v>
@@ -75731,7 +75731,7 @@
         <v>221</v>
       </c>
       <c r="AR510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU510">
         <v>3</v>
@@ -75874,7 +75874,7 @@
         <v>221</v>
       </c>
       <c r="AR511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU511">
         <v>3</v>
@@ -76598,7 +76598,7 @@
         <v>221</v>
       </c>
       <c r="AR516">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU516">
         <v>2</v>
@@ -76747,7 +76747,7 @@
         <v>221</v>
       </c>
       <c r="AR517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU517">
         <v>3</v>
@@ -77182,7 +77182,7 @@
         <v>222</v>
       </c>
       <c r="AR520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU520">
         <v>2</v>
@@ -77331,7 +77331,7 @@
         <v>222</v>
       </c>
       <c r="AR521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU521">
         <v>1</v>
@@ -77474,7 +77474,7 @@
         <v>223</v>
       </c>
       <c r="AR522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU522">
         <v>1</v>
@@ -77623,7 +77623,7 @@
         <v>224</v>
       </c>
       <c r="AR523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU523">
         <v>3</v>
@@ -77772,7 +77772,7 @@
         <v>224</v>
       </c>
       <c r="AR524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU524">
         <v>2</v>
@@ -78070,7 +78070,7 @@
         <v>224</v>
       </c>
       <c r="AR526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU526">
         <v>4</v>
@@ -78219,7 +78219,7 @@
         <v>224</v>
       </c>
       <c r="AR527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU527">
         <v>1</v>
@@ -78368,7 +78368,7 @@
         <v>224</v>
       </c>
       <c r="AR528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU528">
         <v>2</v>
@@ -78809,7 +78809,7 @@
         <v>222</v>
       </c>
       <c r="AR531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU531">
         <v>2</v>
@@ -78958,7 +78958,7 @@
         <v>223</v>
       </c>
       <c r="AR532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU532">
         <v>2</v>
@@ -79107,7 +79107,7 @@
         <v>223</v>
       </c>
       <c r="AR533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU533">
         <v>2</v>
@@ -79256,7 +79256,7 @@
         <v>225</v>
       </c>
       <c r="AR534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU534">
         <v>2</v>
@@ -79405,7 +79405,7 @@
         <v>225</v>
       </c>
       <c r="AR535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU535">
         <v>3</v>
@@ -79554,7 +79554,7 @@
         <v>223</v>
       </c>
       <c r="AR536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU536">
         <v>2</v>
@@ -79703,7 +79703,7 @@
         <v>224</v>
       </c>
       <c r="AR537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU537">
         <v>2</v>
@@ -79852,7 +79852,7 @@
         <v>223</v>
       </c>
       <c r="AR538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU538">
         <v>2</v>
@@ -80001,7 +80001,7 @@
         <v>225</v>
       </c>
       <c r="AR539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU539">
         <v>3</v>
@@ -80150,7 +80150,7 @@
         <v>224</v>
       </c>
       <c r="AR540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU540">
         <v>3</v>
@@ -80448,7 +80448,7 @@
         <v>224</v>
       </c>
       <c r="AR542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU542">
         <v>2</v>
@@ -80597,7 +80597,7 @@
         <v>224</v>
       </c>
       <c r="AR543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU543">
         <v>3</v>
@@ -80895,7 +80895,7 @@
         <v>223</v>
       </c>
       <c r="AR545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU545">
         <v>2</v>
@@ -81190,7 +81190,7 @@
         <v>222</v>
       </c>
       <c r="AR547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU547">
         <v>2</v>
@@ -81339,7 +81339,7 @@
         <v>223</v>
       </c>
       <c r="AR548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU548">
         <v>3</v>
@@ -81488,7 +81488,7 @@
         <v>222</v>
       </c>
       <c r="AR549">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU549">
         <v>8</v>
@@ -81637,7 +81637,7 @@
         <v>222</v>
       </c>
       <c r="AR550">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU550">
         <v>3</v>
@@ -81786,7 +81786,7 @@
         <v>222</v>
       </c>
       <c r="AR551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU551">
         <v>3</v>
@@ -82236,7 +82236,7 @@
         <v>226</v>
       </c>
       <c r="AR554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU554">
         <v>1</v>
@@ -82385,7 +82385,7 @@
         <v>226</v>
       </c>
       <c r="AR555">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU555">
         <v>3</v>
@@ -82823,7 +82823,7 @@
         <v>226</v>
       </c>
       <c r="AR558">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU558">
         <v>3</v>
@@ -82972,7 +82972,7 @@
         <v>226</v>
       </c>
       <c r="AR559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU559">
         <v>1</v>
@@ -83121,7 +83121,7 @@
         <v>226</v>
       </c>
       <c r="AR560">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU560">
         <v>1</v>
@@ -83550,7 +83550,7 @@
         <v>226</v>
       </c>
       <c r="AR563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU563">
         <v>3</v>
@@ -84548,7 +84548,7 @@
         <v>226</v>
       </c>
       <c r="AR570">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU570">
         <v>2</v>
@@ -84697,7 +84697,7 @@
         <v>226</v>
       </c>
       <c r="AR571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU571">
         <v>3</v>
@@ -84843,7 +84843,7 @@
         <v>226</v>
       </c>
       <c r="AR572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU572">
         <v>3</v>
@@ -85272,7 +85272,7 @@
         <v>226</v>
       </c>
       <c r="AR575">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU575">
         <v>3</v>
@@ -85421,7 +85421,7 @@
         <v>226</v>
       </c>
       <c r="AR576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU576">
         <v>3</v>
@@ -85567,7 +85567,7 @@
         <v>226</v>
       </c>
       <c r="AR577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU577">
         <v>2</v>
@@ -85856,7 +85856,7 @@
         <v>226</v>
       </c>
       <c r="AR579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU579">
         <v>1</v>
@@ -86005,7 +86005,7 @@
         <v>226</v>
       </c>
       <c r="AR580">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU580">
         <v>4</v>
@@ -86604,7 +86604,7 @@
         <v>226</v>
       </c>
       <c r="AR584">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU584">
         <v>2</v>
@@ -87179,7 +87179,7 @@
         <v>226</v>
       </c>
       <c r="AR588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU588">
         <v>1</v>
